--- a/updated_script/Graphtext_021920.xlsx
+++ b/updated_script/Graphtext_021920.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16540BD3-6EC7-574E-B47F-4590153DE421}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D60E572-B096-D648-B279-9DF7FF5F7C82}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="880" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="612">
   <si>
     <t>section</t>
   </si>
@@ -851,9 +851,6 @@
   </si>
   <si>
     <t>$.2s</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>$.2f</t>
@@ -2410,9 +2407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH29" sqref="AH29"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD21" sqref="AD21:AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2444,16 +2441,16 @@
         <v>41</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>43</v>
@@ -2462,7 +2459,7 @@
         <v>57</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>111</v>
@@ -2600,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P2" s="5">
         <v>1</v>
@@ -2621,7 +2618,7 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -2675,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P3" s="5">
         <v>1</v>
@@ -2748,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P4" s="5">
         <v>1</v>
@@ -2821,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P5" s="5">
         <v>1</v>
@@ -2884,7 +2881,7 @@
         <v>48</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
@@ -2898,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P6" s="5">
         <v>1</v>
@@ -2959,7 +2956,7 @@
         <v>48</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
@@ -2973,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P7" s="5">
         <v>1</v>
@@ -3034,7 +3031,7 @@
         <v>48</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
@@ -3048,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P8" s="5">
         <v>1</v>
@@ -3109,7 +3106,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
@@ -3123,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P9" s="5">
         <v>1</v>
@@ -3184,7 +3181,7 @@
         <v>48</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
@@ -3198,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P10" s="5">
         <v>1</v>
@@ -3259,7 +3256,7 @@
         <v>48</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
@@ -3273,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P11" s="5">
         <v>1</v>
@@ -3334,7 +3331,7 @@
         <v>48</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
@@ -3348,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P12" s="5">
         <v>1</v>
@@ -3369,7 +3366,7 @@
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -3411,7 +3408,7 @@
         <v>48</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
@@ -3425,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P13" s="5">
         <v>1</v>
@@ -3446,7 +3443,7 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -3486,7 +3483,7 @@
         <v>48</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
@@ -3500,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P14" s="5">
         <v>1</v>
@@ -3561,7 +3558,7 @@
         <v>48</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5" t="s">
@@ -3575,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P15" s="5">
         <v>1</v>
@@ -3631,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="5" t="s">
@@ -3641,10 +3638,10 @@
         <v>60</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5">
@@ -3654,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P16" s="5">
         <v>1</v>
@@ -3682,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -3717,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="5" t="s">
@@ -3730,7 +3727,7 @@
         <v>116</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5">
@@ -3740,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P17" s="5">
         <v>1</v>
@@ -3768,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
@@ -3803,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="5" t="s">
@@ -3816,7 +3813,7 @@
         <v>117</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5">
@@ -3826,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P18" s="5">
         <v>1</v>
@@ -3854,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
@@ -3889,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="5" t="s">
@@ -3899,10 +3896,10 @@
         <v>60</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5">
@@ -3912,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P19" s="5">
         <v>1</v>
@@ -3940,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="AD19" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -3975,7 +3972,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="5" t="s">
@@ -3985,10 +3982,10 @@
         <v>60</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5">
@@ -3998,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P20" s="5">
         <v>1</v>
@@ -4026,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
@@ -4061,7 +4058,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
@@ -4074,7 +4071,7 @@
         <v>118</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="6">
@@ -4084,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P21" s="5">
         <v>0</v>
@@ -4112,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
@@ -4147,7 +4144,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
@@ -4160,7 +4157,7 @@
         <v>118</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6">
@@ -4170,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P22" s="5">
         <v>0</v>
@@ -4198,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
@@ -4233,7 +4230,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
@@ -4246,7 +4243,7 @@
         <v>118</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="6">
@@ -4256,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P23" s="5">
         <v>0</v>
@@ -4277,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:42" ht="16">
@@ -4300,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
@@ -4313,7 +4310,7 @@
         <v>118</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M24" s="6">
         <v>1</v>
@@ -4322,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P24" s="5">
         <v>0</v>
@@ -4343,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:42" ht="16">
@@ -4366,7 +4363,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
@@ -4379,7 +4376,7 @@
         <v>118</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M25" s="6">
         <v>1</v>
@@ -4388,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P25" s="6">
         <v>0</v>
@@ -4409,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:42" ht="16">
@@ -4432,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
@@ -4445,7 +4442,7 @@
         <v>118</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M26" s="6">
         <v>1</v>
@@ -4454,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P26" s="6">
         <v>0</v>
@@ -4475,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:42" ht="16">
@@ -4498,10 +4495,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>44</v>
@@ -4521,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P27" s="5">
         <v>1</v>
@@ -4544,7 +4541,7 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5">
@@ -4583,10 +4580,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>44</v>
@@ -4606,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P28" s="5">
         <v>1</v>
@@ -4629,7 +4626,7 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5">
@@ -4667,9 +4664,11 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="G29" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>45</v>
@@ -4689,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P29" s="5">
         <v>1</v>
@@ -4710,7 +4709,7 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
@@ -4754,9 +4753,11 @@
       <c r="I30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6">
@@ -4766,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P30" s="5">
         <v>0</v>
@@ -4774,22 +4775,24 @@
       <c r="Q30" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="R30" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="S30" s="5">
         <v>1</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
+      <c r="Y30" s="5">
+        <v>5</v>
+      </c>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
+      <c r="AB30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -4831,9 +4834,11 @@
       <c r="I31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6">
@@ -4843,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P31" s="5">
         <v>0</v>
@@ -4851,22 +4856,27 @@
       <c r="Q31" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="R31" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="S31" s="5">
         <v>1</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="V31" s="5">
+        <v>1000</v>
+      </c>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
+      <c r="Y31" s="5">
+        <v>5</v>
+      </c>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
+      <c r="AB31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
@@ -4908,9 +4918,11 @@
       <c r="I32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6">
@@ -4920,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P32" s="5">
         <v>0</v>
@@ -4928,22 +4940,27 @@
       <c r="Q32" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="S32" s="5">
         <v>1</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
+      <c r="V32" s="5">
+        <v>70000</v>
+      </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
+      <c r="Y32" s="5">
+        <v>5</v>
+      </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
+      <c r="AB32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -4985,9 +5002,11 @@
       <c r="I33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>115</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6">
@@ -4997,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P33" s="5">
         <v>0</v>
@@ -5005,22 +5024,24 @@
       <c r="Q33" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="R33" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="S33" s="5">
         <v>1</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
+      <c r="Y33" s="5">
+        <v>5</v>
+      </c>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
+      <c r="AB33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>0</v>
+      </c>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -5062,17 +5083,21 @@
       <c r="I34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="K34" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="M34" s="6">
+        <v>1</v>
+      </c>
       <c r="N34" s="6">
         <v>0</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P34" s="5">
         <v>0</v>
@@ -5080,22 +5105,27 @@
       <c r="Q34" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="R34" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="S34" s="5">
         <v>1</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
+      <c r="V34" s="5">
+        <v>30000</v>
+      </c>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
+      <c r="Y34" s="5">
+        <v>5</v>
+      </c>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
+      <c r="AB34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="5">
+        <v>0</v>
+      </c>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
@@ -5139,7 +5169,7 @@
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6">
@@ -5149,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P35" s="5">
         <v>1</v>
@@ -5158,7 +5188,7 @@
         <v>255</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -5178,9 +5208,7 @@
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
-      <c r="AL35" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
@@ -5215,7 +5243,7 @@
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5">
@@ -5225,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P36" s="5">
         <v>1</v>
@@ -5234,7 +5262,7 @@
         <v>255</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
@@ -5300,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P37" s="5">
         <v>1</v>
@@ -5375,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P38" s="5">
         <v>1</v>
@@ -5396,7 +5424,7 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5">
@@ -5444,7 +5472,7 @@
       </c>
       <c r="J39" s="14"/>
       <c r="K39" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6">
@@ -5454,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P39" s="5">
         <v>1</v>
@@ -5463,7 +5491,7 @@
         <v>254</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
@@ -5523,7 +5551,7 @@
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6">
@@ -5533,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P40" s="5">
         <v>1</v>
@@ -5543,7 +5571,7 @@
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -5610,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P41" s="5">
         <v>1</v>
@@ -5620,7 +5648,7 @@
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -5687,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P42" s="5">
         <v>1</v>
@@ -5760,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P43" s="5">
         <v>1</v>
@@ -5833,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P44" s="5">
         <v>1</v>
@@ -5908,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P45" s="5">
         <v>1</v>
@@ -5929,7 +5957,7 @@
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
@@ -5987,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P46" s="5">
         <v>1</v>
@@ -6060,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P47" s="5">
         <v>1</v>
@@ -6081,7 +6109,7 @@
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
@@ -6133,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P48" s="5">
         <v>1</v>
@@ -6142,7 +6170,7 @@
         <v>255</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
@@ -6164,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
@@ -6216,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P49" s="5">
         <v>1</v>
@@ -6225,7 +6253,7 @@
         <v>255</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
@@ -6247,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
@@ -6299,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P50" s="5">
         <v>1</v>
@@ -6308,7 +6336,7 @@
         <v>255</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -6330,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="AD50" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
@@ -6384,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P51" s="5">
         <v>1</v>
@@ -6393,7 +6421,7 @@
         <v>255</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
@@ -6415,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
@@ -6469,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P52" s="5">
         <v>1</v>
@@ -6544,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P53" s="5">
         <v>1</v>
@@ -6619,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P54" s="5">
         <v>1</v>
@@ -6680,7 +6708,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="6">
@@ -6690,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P55" s="5">
         <v>1</v>
@@ -6699,7 +6727,7 @@
         <v>255</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
@@ -6753,7 +6781,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="6">
@@ -6763,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P56" s="5">
         <v>1</v>
@@ -6772,7 +6800,7 @@
         <v>255</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
@@ -6826,7 +6854,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="6">
@@ -6836,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P57" s="5">
         <v>1</v>
@@ -6845,7 +6873,7 @@
         <v>255</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
@@ -6899,7 +6927,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="6">
@@ -6909,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P58" s="5">
         <v>1</v>
@@ -6918,7 +6946,7 @@
         <v>255</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5"/>
@@ -6972,7 +7000,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="6">
@@ -6982,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P59" s="5">
         <v>1</v>
@@ -6991,7 +7019,7 @@
         <v>255</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
@@ -7055,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P60" s="5">
         <v>1</v>
@@ -7064,7 +7092,7 @@
         <v>255</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
@@ -7116,7 +7144,7 @@
         <v>44</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="6">
@@ -7126,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P61" s="5">
         <v>1</v>
@@ -7135,7 +7163,7 @@
         <v>255</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
@@ -7187,7 +7215,7 @@
         <v>44</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5">
@@ -7197,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P62" s="5">
         <v>1</v>
@@ -7206,7 +7234,7 @@
         <v>255</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
@@ -7272,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P63" s="5">
         <v>1</v>
@@ -7335,7 +7363,7 @@
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="6">
@@ -7345,7 +7373,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P64" s="5">
         <v>1</v>
@@ -7404,7 +7432,7 @@
         <v>50</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="19" t="s">
@@ -7418,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P65" s="5">
         <v>1</v>
@@ -7427,7 +7455,7 @@
         <v>255</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
@@ -7481,11 +7509,11 @@
         <v>50</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="6">
@@ -7495,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P66" s="5">
         <v>1</v>
@@ -7504,7 +7532,7 @@
         <v>255</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
@@ -7558,11 +7586,11 @@
         <v>50</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L67" s="5"/>
       <c r="M67" s="6">
@@ -7572,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P67" s="5">
         <v>1</v>
@@ -7581,7 +7609,7 @@
         <v>255</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
@@ -7635,11 +7663,11 @@
         <v>50</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L68" s="5"/>
       <c r="M68" s="6">
@@ -7649,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P68" s="5">
         <v>1</v>
@@ -7658,7 +7686,7 @@
         <v>255</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
@@ -7712,7 +7740,7 @@
         <v>50</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="12" t="s">
@@ -7726,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P69" s="5">
         <v>1</v>
@@ -7735,7 +7763,7 @@
         <v>255</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
@@ -7788,7 +7816,7 @@
         <v>50</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="12" t="s">
@@ -7802,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P70" s="5">
         <v>1</v>
@@ -7811,7 +7839,7 @@
         <v>255</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
@@ -7865,7 +7893,7 @@
         <v>50</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="12" t="s">
@@ -7879,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P71" s="5">
         <v>1</v>
@@ -7888,7 +7916,7 @@
         <v>255</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
@@ -7942,7 +7970,7 @@
         <v>50</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="12" t="s">
@@ -7955,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P72" s="5">
         <v>1</v>
@@ -7964,7 +7992,7 @@
         <v>255</v>
       </c>
       <c r="R72" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V72" s="5">
         <v>30000</v>
@@ -8068,7 +8096,7 @@
         <v>45</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="6" t="s">
@@ -8082,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P74" s="5">
         <v>1</v>
@@ -8141,11 +8169,11 @@
         <v>49</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" s="6">
@@ -8155,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P75" s="5">
         <v>1</v>
@@ -8214,11 +8242,11 @@
         <v>48</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="6">
@@ -8228,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P76" s="5">
         <v>1</v>
@@ -8237,7 +8265,7 @@
         <v>254</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
@@ -8291,11 +8319,11 @@
         <v>48</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" s="6">
@@ -8305,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P77" s="5">
         <v>1</v>
@@ -8314,7 +8342,7 @@
         <v>254</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
@@ -8366,11 +8394,11 @@
         <v>48</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" s="6">
@@ -8380,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P78" s="5">
         <v>1</v>
@@ -8389,7 +8417,7 @@
         <v>254</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5"/>
@@ -8441,11 +8469,11 @@
         <v>48</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L79" s="5"/>
       <c r="M79" s="6">
@@ -8455,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P79" s="5">
         <v>1</v>
@@ -8464,7 +8492,7 @@
         <v>254</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S79" s="5"/>
       <c r="T79" s="5"/>
@@ -8516,11 +8544,11 @@
         <v>48</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="6">
@@ -8530,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P80" s="5">
         <v>1</v>
@@ -8539,7 +8567,7 @@
         <v>254</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S80" s="5"/>
       <c r="T80" s="5"/>
@@ -8605,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P81" s="5">
         <v>1</v>
@@ -8678,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P82" s="5">
         <v>1</v>
@@ -8737,11 +8765,11 @@
         <v>48</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5">
@@ -8751,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P83" s="5">
         <v>1</v>
@@ -8814,11 +8842,11 @@
         <v>48</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5">
@@ -8828,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P84" s="5">
         <v>1</v>
@@ -8837,7 +8865,7 @@
         <v>255</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S84" s="5"/>
       <c r="T84" s="5"/>
@@ -8891,7 +8919,7 @@
         <v>48</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="6" t="s">
@@ -8905,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="O85" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P85" s="5">
         <v>1</v>
@@ -8914,7 +8942,7 @@
         <v>255</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S85" s="5"/>
       <c r="T85" s="5"/>
@@ -8968,11 +8996,11 @@
         <v>48</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5">
@@ -8982,7 +9010,7 @@
         <v>1</v>
       </c>
       <c r="O86" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P86" s="5">
         <v>1</v>
@@ -8991,7 +9019,7 @@
         <v>255</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S86" s="5"/>
       <c r="T86" s="5"/>
@@ -9042,11 +9070,11 @@
         <v>48</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5">
@@ -9056,7 +9084,7 @@
         <v>1</v>
       </c>
       <c r="O87" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P87" s="5">
         <v>1</v>
@@ -9065,7 +9093,7 @@
         <v>255</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S87" s="5"/>
       <c r="T87" s="5"/>
@@ -9117,11 +9145,11 @@
         <v>48</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5">
@@ -9131,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="O88" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P88" s="5">
         <v>1</v>
@@ -9140,7 +9168,7 @@
         <v>255</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S88" s="5"/>
       <c r="T88" s="5"/>
@@ -9192,11 +9220,11 @@
         <v>48</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M89" s="11">
         <v>0</v>
@@ -9205,7 +9233,7 @@
         <v>1</v>
       </c>
       <c r="O89" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P89" s="9">
         <v>1</v>
@@ -9214,7 +9242,7 @@
         <v>255</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:44" ht="16">
@@ -9242,11 +9270,11 @@
         <v>45</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="6">
@@ -9256,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P90" s="5">
         <v>1</v>
@@ -9265,7 +9293,7 @@
         <v>258</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
@@ -9319,11 +9347,11 @@
         <v>45</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L91" s="5"/>
       <c r="M91" s="6">
@@ -9333,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P91" s="5">
         <v>1</v>
@@ -9342,7 +9370,7 @@
         <v>258</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S91" s="5"/>
       <c r="T91" s="5"/>
@@ -9396,11 +9424,11 @@
         <v>45</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L92" s="5"/>
       <c r="M92" s="6">
@@ -9410,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P92" s="5">
         <v>1</v>
@@ -9419,7 +9447,7 @@
         <v>258</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S92" s="5"/>
       <c r="T92" s="5"/>
@@ -9473,11 +9501,11 @@
         <v>45</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="6">
@@ -9487,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P93" s="5">
         <v>1</v>
@@ -9496,7 +9524,7 @@
         <v>258</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
@@ -9550,11 +9578,11 @@
         <v>45</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="6">
@@ -9564,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P94" s="5">
         <v>1</v>
@@ -9573,7 +9601,7 @@
         <v>258</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S94" s="5"/>
       <c r="T94" s="5"/>
@@ -9627,11 +9655,11 @@
         <v>45</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="6">
@@ -9641,7 +9669,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P95" s="5">
         <v>1</v>
@@ -9650,7 +9678,7 @@
         <v>258</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
@@ -9718,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="P96" s="5">
         <v>1</v>
@@ -9791,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P97" s="5">
         <v>1</v>
@@ -9864,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P98" s="5">
         <v>1</v>
@@ -9939,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P99" s="5">
         <v>1</v>
@@ -10012,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P100" s="5">
         <v>1</v>
@@ -10071,11 +10099,11 @@
         <v>45</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L101" s="5"/>
       <c r="M101" s="6">
@@ -10085,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P101" s="5">
         <v>1</v>
@@ -10094,7 +10122,7 @@
         <v>254</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
@@ -10146,11 +10174,11 @@
         <v>45</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="6">
@@ -10160,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P102" s="5">
         <v>1</v>
@@ -10169,7 +10197,7 @@
         <v>255</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
@@ -10221,11 +10249,11 @@
         <v>45</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L103" s="5"/>
       <c r="M103" s="6">
@@ -10235,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P103" s="5">
         <v>1</v>
@@ -10244,7 +10272,7 @@
         <v>255</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
@@ -10296,11 +10324,11 @@
         <v>45</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L104" s="5"/>
       <c r="M104" s="6">
@@ -10310,7 +10338,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P104" s="5">
         <v>1</v>
@@ -10319,7 +10347,7 @@
         <v>255</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
@@ -10371,11 +10399,11 @@
         <v>45</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L105" s="5"/>
       <c r="M105" s="6">
@@ -10385,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P105" s="5">
         <v>1</v>
@@ -10394,7 +10422,7 @@
         <v>255</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
@@ -10446,11 +10474,11 @@
         <v>45</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L106" s="5"/>
       <c r="M106" s="6">
@@ -10460,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P106" s="5">
         <v>1</v>
@@ -10469,7 +10497,7 @@
         <v>255</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
@@ -10521,11 +10549,11 @@
         <v>45</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M107" s="6">
         <v>1</v>
@@ -10534,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P107" s="5">
         <v>1</v>
@@ -10543,7 +10571,7 @@
         <v>255</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:44" ht="16">
@@ -10571,11 +10599,11 @@
         <v>45</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L108" s="5"/>
       <c r="M108" s="6">
@@ -10585,7 +10613,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P108" s="5">
         <v>1</v>
@@ -10594,7 +10622,7 @@
         <v>255</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S108" s="5"/>
       <c r="T108" s="5"/>
@@ -10646,11 +10674,11 @@
         <v>45</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L109" s="5"/>
       <c r="M109" s="6">
@@ -10660,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P109" s="5">
         <v>1</v>
@@ -10669,7 +10697,7 @@
         <v>255</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
@@ -10721,11 +10749,11 @@
         <v>45</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L110" s="5"/>
       <c r="M110" s="6">
@@ -10735,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P110" s="5">
         <v>1</v>
@@ -10744,7 +10772,7 @@
         <v>255</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S110" s="5"/>
       <c r="T110" s="5"/>
@@ -10810,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P111" s="5">
         <v>1</v>
@@ -10883,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P112" s="5">
         <v>1</v>
@@ -10956,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P113" s="5">
         <v>1</v>
@@ -10965,7 +10993,7 @@
         <v>255</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S113" s="5"/>
       <c r="T113" s="5"/>
@@ -11031,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P114" s="5">
         <v>1</v>
@@ -11040,7 +11068,7 @@
         <v>255</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S114" s="5"/>
       <c r="T114" s="5"/>
@@ -11096,7 +11124,7 @@
       </c>
       <c r="J115" s="14"/>
       <c r="K115" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L115" s="5"/>
       <c r="M115" s="6">
@@ -11106,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P115" s="5">
         <v>1</v>
@@ -11115,7 +11143,7 @@
         <v>255</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
@@ -11171,7 +11199,7 @@
       </c>
       <c r="J116" s="14"/>
       <c r="K116" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L116" s="5"/>
       <c r="M116" s="6">
@@ -11181,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P116" s="5">
         <v>1</v>
@@ -11190,7 +11218,7 @@
         <v>255</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
@@ -11246,7 +11274,7 @@
       </c>
       <c r="J117" s="14"/>
       <c r="K117" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="6">
@@ -11256,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P117" s="5">
         <v>1</v>
@@ -11265,7 +11293,7 @@
         <v>255</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
@@ -11317,11 +11345,11 @@
         <v>45</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J118" s="5"/>
       <c r="K118" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L118" s="5"/>
       <c r="M118" s="6">
@@ -11331,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P118" s="5">
         <v>1</v>
@@ -11340,7 +11368,7 @@
         <v>254</v>
       </c>
       <c r="R118" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
@@ -11374,11 +11402,11 @@
         <v>45</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J119" s="5"/>
       <c r="K119" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="6">
@@ -11388,7 +11416,7 @@
         <v>0</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P119" s="5">
         <v>1</v>
@@ -11397,7 +11425,7 @@
         <v>254</v>
       </c>
       <c r="R119" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S119" s="5"/>
       <c r="T119" s="5"/>
@@ -11431,11 +11459,11 @@
         <v>45</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="6">
@@ -11445,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P120" s="5">
         <v>1</v>
@@ -11454,7 +11482,7 @@
         <v>254</v>
       </c>
       <c r="R120" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
@@ -11510,11 +11538,11 @@
         <v>45</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="6">
@@ -11524,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="O121" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P121" s="5">
         <v>1</v>
@@ -11533,7 +11561,7 @@
         <v>254</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S121" s="5"/>
       <c r="T121" s="5"/>
@@ -11567,11 +11595,11 @@
         <v>45</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="6">
@@ -11581,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="O122" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P122" s="5">
         <v>1</v>
@@ -11590,7 +11618,7 @@
         <v>254</v>
       </c>
       <c r="R122" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S122" s="5"/>
       <c r="T122" s="5"/>
@@ -11644,11 +11672,11 @@
         <v>45</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L123" s="5"/>
       <c r="M123" s="6">
@@ -11658,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="O123" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P123" s="5">
         <v>1</v>
@@ -11667,7 +11695,7 @@
         <v>254</v>
       </c>
       <c r="R123" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
@@ -11723,11 +11751,11 @@
         <v>45</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L124" s="5"/>
       <c r="M124" s="6">
@@ -11737,7 +11765,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P124" s="5">
         <v>1</v>
@@ -11746,7 +11774,7 @@
         <v>254</v>
       </c>
       <c r="R124" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S124" s="5"/>
       <c r="T124" s="5"/>
@@ -11800,11 +11828,11 @@
         <v>45</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L125" s="5"/>
       <c r="M125" s="6">
@@ -11814,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P125" s="5">
         <v>1</v>
@@ -11823,7 +11851,7 @@
         <v>254</v>
       </c>
       <c r="R125" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S125" s="5"/>
       <c r="T125" s="5"/>
@@ -11877,11 +11905,11 @@
         <v>45</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J126" s="5"/>
       <c r="K126" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L126" s="5"/>
       <c r="M126" s="6">
@@ -11891,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P126" s="5">
         <v>1</v>
@@ -11900,7 +11928,7 @@
         <v>255</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S126" s="5"/>
       <c r="T126" s="5"/>
@@ -11954,11 +11982,11 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J127" s="5"/>
       <c r="K127" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="6">
@@ -11968,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P127" s="5">
         <v>1</v>
@@ -11977,7 +12005,7 @@
         <v>255</v>
       </c>
       <c r="R127" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S127" s="5"/>
       <c r="T127" s="5"/>
@@ -12031,11 +12059,11 @@
         <v>45</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J128" s="5"/>
       <c r="K128" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L128" s="5"/>
       <c r="M128" s="6">
@@ -12045,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P128" s="5">
         <v>1</v>
@@ -12054,7 +12082,7 @@
         <v>255</v>
       </c>
       <c r="R128" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S128" s="5"/>
       <c r="T128" s="5"/>
@@ -12108,11 +12136,11 @@
         <v>45</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J129" s="5"/>
       <c r="K129" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L129" s="5"/>
       <c r="M129" s="6">
@@ -12122,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P129" s="5">
         <v>1</v>
@@ -12131,7 +12159,7 @@
         <v>255</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S129" s="5"/>
       <c r="T129" s="5"/>
@@ -12185,11 +12213,11 @@
         <v>45</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L130" s="25"/>
       <c r="M130" s="6">
@@ -12199,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P130" s="5">
         <v>1</v>
@@ -12208,7 +12236,7 @@
         <v>255</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S130" s="5"/>
       <c r="T130" s="5"/>
@@ -12262,11 +12290,11 @@
         <v>45</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L131" s="25"/>
       <c r="M131" s="6">
@@ -12276,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P131" s="5">
         <v>1</v>
@@ -12285,7 +12313,7 @@
         <v>255</v>
       </c>
       <c r="R131" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S131" s="5"/>
       <c r="T131" s="5"/>
@@ -12341,11 +12369,11 @@
         <v>45</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L132" s="5"/>
       <c r="M132" s="6">
@@ -12355,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P132" s="5">
         <v>1</v>
@@ -12364,7 +12392,7 @@
         <v>255</v>
       </c>
       <c r="R132" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S132" s="5"/>
       <c r="T132" s="5"/>
@@ -12418,11 +12446,11 @@
         <v>45</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L133" s="5"/>
       <c r="M133" s="6">
@@ -12432,7 +12460,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P133" s="5">
         <v>1</v>
@@ -12441,7 +12469,7 @@
         <v>255</v>
       </c>
       <c r="R133" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S133" s="5"/>
       <c r="T133" s="5"/>
@@ -12475,7 +12503,7 @@
         <v>3</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C134" s="6">
         <f t="shared" si="6"/>
@@ -12495,7 +12523,7 @@
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L134" s="5"/>
       <c r="M134" s="6">
@@ -12505,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="O134" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P134" s="5">
         <v>1</v>
@@ -12544,7 +12572,7 @@
         <v>3</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C135" s="6">
         <f t="shared" si="6"/>
@@ -12566,7 +12594,7 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L135" s="5"/>
       <c r="M135" s="6">
@@ -12576,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P135" s="5">
         <v>1</v>
@@ -12615,7 +12643,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C136" s="6">
         <f t="shared" si="6"/>
@@ -12635,7 +12663,7 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L136" s="5"/>
       <c r="M136" s="6">
@@ -12643,7 +12671,7 @@
       </c>
       <c r="N136" s="6"/>
       <c r="O136" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P136" s="5">
         <v>1</v>
@@ -12716,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="O137" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P137" s="5">
         <v>1</v>
@@ -12725,7 +12753,7 @@
         <v>255</v>
       </c>
       <c r="R137" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S137" s="5"/>
       <c r="T137" s="5"/>
@@ -12795,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P138" s="5">
         <v>1</v>
@@ -12804,7 +12832,7 @@
         <v>255</v>
       </c>
       <c r="R138" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S138" s="5"/>
       <c r="T138" s="5"/>
@@ -12872,7 +12900,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P139" s="5">
         <v>1</v>
@@ -12881,7 +12909,7 @@
         <v>255</v>
       </c>
       <c r="R139" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S139" s="5"/>
       <c r="T139" s="5"/>
@@ -12949,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P140" s="5">
         <v>1</v>
@@ -12958,7 +12986,7 @@
         <v>255</v>
       </c>
       <c r="R140" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="S140" s="5"/>
       <c r="T140" s="5"/>
@@ -13026,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P141" s="5">
         <v>1</v>
@@ -13099,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="O142" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P142" s="5">
         <v>1</v>
@@ -13172,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P143" s="5">
         <v>1</v>
@@ -13245,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P144" s="5">
         <v>1</v>
@@ -13320,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P145" s="5">
         <v>1</v>
@@ -13393,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P146" s="5">
         <v>1</v>
@@ -13466,7 +13494,7 @@
         <v>0</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P147" s="5">
         <v>1</v>
@@ -13539,7 +13567,7 @@
         <v>0</v>
       </c>
       <c r="O148" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P148" s="5">
         <v>1</v>
@@ -13612,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P149" s="5">
         <v>1</v>
@@ -13687,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P150" s="5">
         <v>1</v>
@@ -13758,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="O151" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P151" s="5">
         <v>1</v>
@@ -13817,7 +13845,7 @@
         <v>49</v>
       </c>
       <c r="K152" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M152" s="6">
         <v>0</v>
@@ -13826,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="O152" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="P152" s="5">
         <v>1</v>
@@ -13874,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P153" s="5">
         <v>1</v>
@@ -13947,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="O154" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P154" s="5">
         <v>1</v>
@@ -14020,13 +14048,13 @@
         <v>0</v>
       </c>
       <c r="O155" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P155" s="5">
         <v>1</v>
       </c>
       <c r="Q155" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R155" s="5"/>
       <c r="S155" s="5"/>
@@ -14093,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P156" s="5">
         <v>1</v>
@@ -14154,7 +14182,7 @@
         <v>48</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J157" s="5"/>
       <c r="K157" s="5" t="s">
@@ -14168,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="P157" s="5">
         <v>1</v>
@@ -14227,7 +14255,7 @@
         <v>48</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5" t="s">
@@ -14241,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P158" s="5">
         <v>1</v>
@@ -14300,11 +14328,11 @@
         <v>45</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J159" s="5"/>
       <c r="K159" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M159" s="6">
         <v>0</v>
@@ -14313,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="O159" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P159" s="5">
         <v>1</v>
@@ -14322,7 +14350,7 @@
         <v>254</v>
       </c>
       <c r="R159" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="160" spans="1:44" ht="16">
@@ -14350,11 +14378,11 @@
         <v>46</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L160" s="5"/>
       <c r="M160" s="6">
@@ -14364,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P160" s="5">
         <v>1</v>
@@ -14423,7 +14451,7 @@
         <v>51</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="6" t="s">
@@ -14435,7 +14463,7 @@
       </c>
       <c r="N161" s="6"/>
       <c r="O161" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P161" s="5">
         <v>1</v>
@@ -14444,7 +14472,7 @@
         <v>255</v>
       </c>
       <c r="R161" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S161" s="5"/>
       <c r="T161" s="5"/>
@@ -14498,7 +14526,7 @@
         <v>51</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J162" s="5"/>
       <c r="K162" s="6" t="s">
@@ -14510,7 +14538,7 @@
       </c>
       <c r="N162" s="6"/>
       <c r="O162" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P162" s="5">
         <v>1</v>
@@ -14519,7 +14547,7 @@
         <v>255</v>
       </c>
       <c r="R162" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S162" s="5"/>
       <c r="T162" s="5"/>
@@ -14573,7 +14601,7 @@
         <v>51</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="6" t="s">
@@ -14585,7 +14613,7 @@
       </c>
       <c r="N163" s="6"/>
       <c r="O163" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P163" s="5">
         <v>1</v>
@@ -14594,7 +14622,7 @@
         <v>255</v>
       </c>
       <c r="R163" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
@@ -14648,7 +14676,7 @@
         <v>51</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="6" t="s">
@@ -14662,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="O164" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P164" s="5">
         <v>1</v>
@@ -14671,7 +14699,7 @@
         <v>255</v>
       </c>
       <c r="R164" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="S164" s="5"/>
       <c r="T164" s="5"/>
@@ -14737,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="O165" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P165" s="5">
         <v>1</v>
@@ -14796,17 +14824,17 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J166" s="14"/>
       <c r="K166" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
       <c r="O166" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P166" s="5">
         <v>1</v>
@@ -14869,7 +14897,7 @@
       </c>
       <c r="J167" s="14"/>
       <c r="K167" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L167" s="5"/>
       <c r="M167" s="1">
@@ -14879,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P167" s="5">
         <v>1</v>
@@ -14952,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="O168" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P168" s="5">
         <v>1</v>
@@ -15011,17 +15039,17 @@
         <v>45</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J169" s="5"/>
       <c r="K169" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L169" s="25"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
       <c r="O169" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P169" s="5">
         <v>1</v>
@@ -15081,17 +15109,17 @@
         <v>45</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J170" s="5"/>
       <c r="K170" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="P170" s="5">
         <v>1</v>
@@ -15151,11 +15179,11 @@
         <v>45</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J171" s="5"/>
       <c r="K171" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L171" s="5"/>
       <c r="M171" s="1">
@@ -15165,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="O171" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="P171" s="5">
         <v>1</v>
@@ -15239,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="O172" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P172" s="5">
         <v>1</v>
@@ -15298,7 +15326,7 @@
         <v>48</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5" t="s">
@@ -15312,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="O173" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P173" s="5">
         <v>1</v>
@@ -15371,7 +15399,7 @@
         <v>48</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J174" s="5"/>
       <c r="K174" s="5" t="s">
@@ -15385,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P174" s="5">
         <v>1</v>
@@ -15444,7 +15472,7 @@
         <v>51</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J175" s="5"/>
       <c r="K175" s="5" t="s">
@@ -15458,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="O175" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P175" s="5">
         <v>1</v>
@@ -15517,7 +15545,7 @@
         <v>51</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J176" s="5"/>
       <c r="K176" s="5" t="s">
@@ -15531,7 +15559,7 @@
         <v>0</v>
       </c>
       <c r="O176" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P176" s="5">
         <v>1</v>
@@ -15590,7 +15618,7 @@
         <v>48</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J177" s="5"/>
       <c r="K177" s="5" t="s">
@@ -15604,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="O177" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P177" s="5">
         <v>1</v>
@@ -15677,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P178" s="5">
         <v>1</v>
@@ -15716,7 +15744,7 @@
         <v>4</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C179" s="6">
         <f t="shared" si="6"/>
@@ -15736,11 +15764,11 @@
         <v>45</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J179" s="2"/>
       <c r="K179" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L179" s="5"/>
       <c r="M179" s="5">
@@ -15750,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="O179" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P179" s="5">
         <v>1</v>
@@ -15825,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P180" s="5">
         <v>1</v>
@@ -15898,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="O181" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P181" s="5">
         <v>1</v>
@@ -15971,7 +15999,7 @@
         <v>0</v>
       </c>
       <c r="O182" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P182" s="5">
         <v>1</v>
@@ -16044,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="O183" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P183" s="5">
         <v>1</v>
@@ -16117,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="O184" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P184" s="5">
         <v>1</v>
@@ -16190,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="O185" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P185" s="5">
         <v>1</v>
@@ -16263,7 +16291,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P186" s="5">
         <v>1</v>
@@ -16336,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="O187" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P187" s="5">
         <v>1</v>
@@ -16409,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="O188" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P188" s="5">
         <v>1</v>
@@ -16468,7 +16496,7 @@
         <v>48</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J189" s="5"/>
       <c r="K189" s="5" t="s">
@@ -16482,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="O189" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P189" s="5">
         <v>1</v>
@@ -16541,7 +16569,7 @@
         <v>48</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J190" s="5"/>
       <c r="K190" s="5" t="s">
@@ -16555,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="O190" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P190" s="5">
         <v>1</v>
@@ -16614,7 +16642,7 @@
         <v>48</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J191" s="5"/>
       <c r="K191" s="5" t="s">
@@ -16628,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="O191" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P191" s="5">
         <v>1</v>
@@ -16687,7 +16715,7 @@
         <v>48</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J192" s="5"/>
       <c r="K192" s="5" t="s">
@@ -16701,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P192" s="5">
         <v>1</v>
@@ -16760,7 +16788,7 @@
         <v>48</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J193" s="5"/>
       <c r="K193" s="5" t="s">
@@ -16774,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="O193" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P193" s="5">
         <v>1</v>
@@ -16833,7 +16861,7 @@
         <v>48</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J194" s="5"/>
       <c r="K194" s="5" t="s">
@@ -16847,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="O194" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P194" s="5">
         <v>1</v>
@@ -16910,7 +16938,7 @@
       </c>
       <c r="J195" s="5"/>
       <c r="K195" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L195" s="5"/>
       <c r="M195" s="1">
@@ -16920,7 +16948,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P195" s="5">
         <v>1</v>
@@ -16983,7 +17011,7 @@
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M196" s="1">
         <v>0</v>
@@ -16992,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="O196" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P196" s="34">
         <v>0</v>
@@ -17027,7 +17055,7 @@
       </c>
       <c r="J197" s="5"/>
       <c r="K197" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L197" s="25"/>
       <c r="M197" s="1">
@@ -17037,7 +17065,7 @@
         <v>0</v>
       </c>
       <c r="O197" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P197" s="5">
         <v>1</v>
@@ -17100,7 +17128,7 @@
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L198" s="13"/>
       <c r="M198" s="1">
@@ -17110,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="O198" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P198" s="5">
         <v>1</v>
@@ -17169,13 +17197,13 @@
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
       <c r="K199" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L199" s="13"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
       <c r="O199" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P199" s="5">
         <v>0</v>
@@ -17232,13 +17260,13 @@
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
       <c r="K200" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L200" s="13"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
       <c r="O200" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P200" s="5">
         <v>0</v>
@@ -17309,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="O201" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="P201" s="5">
         <v>1</v>
@@ -17368,7 +17396,7 @@
         <v>55</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J202" s="5"/>
       <c r="K202" s="13" t="s">
@@ -17382,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="O202" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P202" s="5">
         <v>1</v>
@@ -17441,7 +17469,7 @@
         <v>56</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J203" s="5"/>
       <c r="K203" s="6" t="s">
@@ -17455,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P203" s="5">
         <v>0</v>
@@ -17512,7 +17540,7 @@
         <v>47</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J204" s="5"/>
       <c r="K204" s="6" t="s">
@@ -17526,7 +17554,7 @@
         <v>1</v>
       </c>
       <c r="O204" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P204" s="5">
         <v>1</v>
@@ -17585,7 +17613,7 @@
         <v>46</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J205" s="5"/>
       <c r="K205" s="6" t="s">
@@ -17599,7 +17627,7 @@
         <v>1</v>
       </c>
       <c r="O205" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P205" s="5">
         <v>1</v>
@@ -17658,7 +17686,7 @@
         <v>55</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J206" s="5"/>
       <c r="K206" s="6" t="s">
@@ -17672,7 +17700,7 @@
         <v>0</v>
       </c>
       <c r="O206" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P206" s="5">
         <v>1</v>
@@ -17731,7 +17759,7 @@
         <v>56</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="6" t="s">
@@ -17745,7 +17773,7 @@
         <v>0</v>
       </c>
       <c r="O207" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P207" s="5">
         <v>0</v>
@@ -17802,7 +17830,7 @@
         <v>47</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J208" s="5"/>
       <c r="K208" s="6" t="s">
@@ -17816,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="O208" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="P208" s="5">
         <v>1</v>
@@ -17875,7 +17903,7 @@
         <v>46</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J209" s="5"/>
       <c r="K209" s="6" t="s">
@@ -17889,7 +17917,7 @@
         <v>1</v>
       </c>
       <c r="O209" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P209" s="5">
         <v>0</v>
@@ -17946,7 +17974,7 @@
         <v>49</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J210" s="5"/>
       <c r="K210" s="6" t="s">
@@ -17960,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="O210" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P210" s="5">
         <v>1</v>
@@ -18019,7 +18047,7 @@
         <v>56</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J211" s="5"/>
       <c r="K211" s="6" t="s">
@@ -18033,7 +18061,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P211" s="5">
         <v>0</v>
@@ -18090,7 +18118,7 @@
         <v>47</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J212" s="5"/>
       <c r="K212" s="6" t="s">
@@ -18104,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="O212" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P212" s="5">
         <v>1</v>
@@ -18163,7 +18191,7 @@
         <v>46</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J213" s="5"/>
       <c r="K213" s="5" t="s">
@@ -18177,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="O213" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="P213" s="5">
         <v>1</v>
@@ -18236,7 +18264,7 @@
         <v>49</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J214" s="5"/>
       <c r="K214" s="5" t="s">
@@ -18250,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P214" s="5">
         <v>1</v>
@@ -18309,7 +18337,7 @@
         <v>56</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J215" s="5"/>
       <c r="K215" s="5" t="s">
@@ -18323,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="O215" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P215" s="5">
         <v>0</v>
@@ -18380,7 +18408,7 @@
         <v>47</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J216" s="5"/>
       <c r="K216" s="5" t="s">
@@ -18394,7 +18422,7 @@
         <v>1</v>
       </c>
       <c r="O216" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P216" s="5">
         <v>1</v>
@@ -18453,7 +18481,7 @@
         <v>46</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J217" s="5"/>
       <c r="K217" s="5" t="s">
@@ -18467,7 +18495,7 @@
         <v>1</v>
       </c>
       <c r="O217" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="P217" s="5">
         <v>1</v>
@@ -18526,7 +18554,7 @@
         <v>49</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J218" s="5"/>
       <c r="K218" s="5" t="s">
@@ -18540,7 +18568,7 @@
         <v>0</v>
       </c>
       <c r="O218" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P218" s="5">
         <v>1</v>
@@ -18599,7 +18627,7 @@
         <v>56</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5" t="s">
@@ -18613,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="O219" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P219" s="5">
         <v>0</v>
@@ -18670,7 +18698,7 @@
         <v>47</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J220" s="5"/>
       <c r="K220" s="5" t="s">
@@ -18684,7 +18712,7 @@
         <v>1</v>
       </c>
       <c r="O220" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P220" s="5">
         <v>1</v>
@@ -18743,7 +18771,7 @@
         <v>46</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J221" s="5"/>
       <c r="K221" s="5" t="s">
@@ -18757,7 +18785,7 @@
         <v>1</v>
       </c>
       <c r="O221" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="P221" s="5">
         <v>1</v>
